--- a/Output/productivity_agent_April_valid.xlsx
+++ b/Output/productivity_agent_April_valid.xlsx
@@ -2887,7 +2887,7 @@
         <v>0.9337045189693124</v>
       </c>
       <c r="J4">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>52.59130434782608</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.7012173913043478</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.8774954403787013</v>
+        <v>0.7656662904688415</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -7008,7 +7008,7 @@
         <v>0.8678818921361856</v>
       </c>
       <c r="J17">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>43.91459074733097</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="CH17">
-        <v>0.5855278766310796</v>
+        <v>0</v>
       </c>
       <c r="CI17">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.6865184091604769</v>
+        <v>0.6008388396412961</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -7959,7 +7959,7 @@
         <v>0.9700467562828755</v>
       </c>
       <c r="J20">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>27.33924611973392</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="CH20">
-        <v>0.3645232815964523</v>
+        <v>0</v>
       </c>
       <c r="CI20">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.5711438222709733</v>
+        <v>0.5216182913175164</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -23175,7 +23175,7 @@
         <v>0.7291880781089415</v>
       </c>
       <c r="J68">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AV68">
-        <v>32.90780141843972</v>
+        <v>0</v>
       </c>
       <c r="AW68">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="CH68">
-        <v>0.4387706855791962</v>
+        <v>0</v>
       </c>
       <c r="CI68">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.8266349029199289</v>
+        <v>0.7830361244374295</v>
       </c>
     </row>
     <row r="69" spans="1:105">
@@ -25711,7 +25711,7 @@
         <v>0.8173929098966027</v>
       </c>
       <c r="J76">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="AV76">
-        <v>25.59322033898305</v>
+        <v>0</v>
       </c>
       <c r="AW76">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="CH76">
-        <v>0.3412429378531073</v>
+        <v>0</v>
       </c>
       <c r="CI76">
         <v>0</v>
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>0.6268453247790026</v>
+        <v>0.5995582229041437</v>
       </c>
     </row>
     <row r="77" spans="1:105">
@@ -57728,7 +57728,7 @@
         <v>0.6510930132876125</v>
       </c>
       <c r="J177">
-        <v>2516</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -57842,7 +57842,7 @@
         <v>0</v>
       </c>
       <c r="AV177">
-        <v>52.18112685793292</v>
+        <v>0</v>
       </c>
       <c r="AW177">
         <v>0</v>
@@ -57956,7 +57956,7 @@
         <v>0</v>
       </c>
       <c r="CH177">
-        <v>0.6957483581057723</v>
+        <v>0</v>
       </c>
       <c r="CI177">
         <v>0</v>
@@ -58013,7 +58013,7 @@
         <v>0</v>
       </c>
       <c r="DA177">
-        <v>0.6527658070180067</v>
+        <v>0.2110717100243704</v>
       </c>
     </row>
     <row r="178" spans="1:105">
@@ -60898,7 +60898,7 @@
         <v>0.7870139581256231</v>
       </c>
       <c r="J187">
-        <v>2288</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -61012,7 +61012,7 @@
         <v>0</v>
       </c>
       <c r="AV187">
-        <v>55.28795811518322</v>
+        <v>0</v>
       </c>
       <c r="AW187">
         <v>0</v>
@@ -61126,7 +61126,7 @@
         <v>0</v>
       </c>
       <c r="CH187">
-        <v>0.7371727748691096</v>
+        <v>0</v>
       </c>
       <c r="CI187">
         <v>0</v>
@@ -61183,7 +61183,7 @@
         <v>0</v>
       </c>
       <c r="DA187">
-        <v>0.7863513390540635</v>
+        <v>0.4965017745251639</v>
       </c>
     </row>
     <row r="188" spans="1:105">
